--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_8.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1345370.507888843</v>
+        <v>-1349510.214302799</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516698</v>
+        <v>2280223.653892731</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791241</v>
+        <v>419463.0933791245</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13420880.33355393</v>
+        <v>13417930.43660184</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>317.4135226514553</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>299.6671296085267</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
@@ -677,7 +677,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +741,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>74.77447163687684</v>
       </c>
       <c r="E3" t="n">
         <v>135.0820259802211</v>
@@ -795,10 +795,10 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>35.13685922632925</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>187.4140068734885</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>6.367131949110768</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>154.7572460957207</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>214.8058141714652</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>320.1416939338611</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968124</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1035,10 +1035,10 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>187.4140068734885</v>
+        <v>157.0782734765469</v>
       </c>
       <c r="Y6" t="n">
         <v>177.5210747552478</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>147.8443769615979</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.3956945425467</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>238.7825555564399</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>22.85155126772433</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>48.10463200121415</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>81.22505629081259</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.5084051007669</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>299.5207219947615</v>
       </c>
       <c r="G11" t="n">
         <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372785</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>100.6675882927504</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>85.81822260872778</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442481</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901683</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>24.01818906262815</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.241239332652</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
@@ -1594,7 +1594,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5084051007669</v>
+        <v>6.888124113643387</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>18.12732193073145</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372785</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,16 +1658,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
@@ -1765,25 +1765,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>86.97947392791032</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177843</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465754</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442481</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681694</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338899</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456092</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>107.3944044802039</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
@@ -1856,13 +1856,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412923</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1904,10 +1904,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2141,10 +2141,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>34.48845019277559</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542121</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820279</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954281</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345501</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852512</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291034</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838898</v>
+        <v>24.17382596574977</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828911</v>
+        <v>52.06849973564989</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161067</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.349283903446</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813246</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162029</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431743</v>
+        <v>70.57601873167822</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459984</v>
+        <v>55.72314698196062</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643956</v>
+        <v>41.29686219380035</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931867</v>
+        <v>41.22330424667946</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908594</v>
+        <v>42.97275566644673</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147808</v>
+        <v>53.79159358883886</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805012</v>
+        <v>41.14384575541091</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922205</v>
+        <v>18.98356133658284</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367797</v>
+        <v>9.882059701038756</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920528</v>
+        <v>88.00800320656607</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133774</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404472</v>
+        <v>169.804484067808</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273132</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947759</v>
+        <v>118.9595992221367</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3977,7 +3977,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D44" t="n">
         <v>251.2267481799146</v>
@@ -3986,7 +3986,7 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G44" t="n">
         <v>278.6711586412925</v>
@@ -3995,7 +3995,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W44" t="n">
         <v>236.9290753658111</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H46" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708532</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369177</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978639</v>
@@ -4201,7 +4201,7 @@
         <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1516.79874450329</v>
+        <v>1636.674678391045</v>
       </c>
       <c r="C2" t="n">
-        <v>1196.179024653335</v>
+        <v>1636.674678391045</v>
       </c>
       <c r="D2" t="n">
-        <v>1196.179024653335</v>
+        <v>1333.980608079402</v>
       </c>
       <c r="E2" t="n">
-        <v>793.5954997698794</v>
+        <v>1333.980608079402</v>
       </c>
       <c r="F2" t="n">
-        <v>780.7414653402612</v>
+        <v>917.0861696093798</v>
       </c>
       <c r="G2" t="n">
-        <v>367.5787098282644</v>
+        <v>503.9234140973829</v>
       </c>
       <c r="H2" t="n">
-        <v>43.495659394755</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>188.1454323035831</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>681.465724022112</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="M2" t="n">
-        <v>1206.93208520796</v>
+        <v>1058.738054302316</v>
       </c>
       <c r="N2" t="n">
-        <v>1734.743368845422</v>
+        <v>1572.340732912004</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.78296973775</v>
+        <v>1572.340732912004</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.78296973775</v>
+        <v>1890.316777675972</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023272</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.790056023272</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="T2" t="n">
-        <v>1913.289453582689</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="U2" t="n">
-        <v>1913.289453582689</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="V2" t="n">
-        <v>1913.289453582689</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="W2" t="n">
-        <v>1913.289453582689</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="X2" t="n">
-        <v>1913.289453582689</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="Y2" t="n">
-        <v>1516.79874450329</v>
+        <v>2037.169424102442</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>786.3100318480283</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>635.6558014081205</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284341</v>
+        <v>90.89050074442682</v>
       </c>
       <c r="I3" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J3" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K3" t="n">
-        <v>363.2348054569815</v>
+        <v>361.2423928185648</v>
       </c>
       <c r="L3" t="n">
-        <v>846.8008913552947</v>
+        <v>361.2423928185648</v>
       </c>
       <c r="M3" t="n">
-        <v>846.8008913552947</v>
+        <v>874.8450714282526</v>
       </c>
       <c r="N3" t="n">
-        <v>1252.641318430371</v>
+        <v>1327.194567652342</v>
       </c>
       <c r="O3" t="n">
-        <v>1769.161601021353</v>
+        <v>1840.79724626203</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.78296973775</v>
+        <v>1840.79724626203</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635815</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535683</v>
+        <v>1916.314617614853</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734592</v>
+        <v>1739.330805813762</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413234</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863471</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1306.727660863471</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>1117.420583213482</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>938.1063662889896</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>369.3338904262511</v>
+        <v>218.1398111035924</v>
       </c>
       <c r="C4" t="n">
-        <v>199.1287724922402</v>
+        <v>47.93469316958161</v>
       </c>
       <c r="D4" t="n">
-        <v>43.495659394755</v>
+        <v>47.93469316958161</v>
       </c>
       <c r="E4" t="n">
-        <v>43.495659394755</v>
+        <v>47.93469316958161</v>
       </c>
       <c r="F4" t="n">
-        <v>43.495659394755</v>
+        <v>47.93469316958161</v>
       </c>
       <c r="G4" t="n">
-        <v>43.495659394755</v>
+        <v>47.93469316958161</v>
       </c>
       <c r="H4" t="n">
-        <v>43.495659394755</v>
+        <v>47.93469316958161</v>
       </c>
       <c r="I4" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J4" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>707.2312174661248</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>707.2312174661248</v>
       </c>
       <c r="V4" t="n">
-        <v>944.9426819363074</v>
+        <v>441.251872286949</v>
       </c>
       <c r="W4" t="n">
-        <v>788.6222313345693</v>
+        <v>441.251872286949</v>
       </c>
       <c r="X4" t="n">
-        <v>554.5419091175523</v>
+        <v>441.251872286949</v>
       </c>
       <c r="Y4" t="n">
-        <v>554.5419091175523</v>
+        <v>218.1398111035924</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1090.528423246941</v>
+        <v>1508.154037046574</v>
       </c>
       <c r="C5" t="n">
-        <v>873.5528533767741</v>
+        <v>1114.978535549504</v>
       </c>
       <c r="D5" t="n">
-        <v>873.5528533767741</v>
+        <v>791.6030871314629</v>
       </c>
       <c r="E5" t="n">
-        <v>873.5528533767741</v>
+        <v>791.6030871314629</v>
       </c>
       <c r="F5" t="n">
-        <v>456.6584149067519</v>
+        <v>778.7490527018447</v>
       </c>
       <c r="G5" t="n">
-        <v>43.495659394755</v>
+        <v>365.5862971898478</v>
       </c>
       <c r="H5" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I5" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>400.4856027838002</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>607.9173797052163</v>
       </c>
       <c r="M5" t="n">
-        <v>1578.706865059667</v>
+        <v>1121.520058314904</v>
       </c>
       <c r="N5" t="n">
-        <v>1641.74991746528</v>
+        <v>1635.122736924592</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.74991746528</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596802</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023272</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964323</v>
+        <v>1908.648782757971</v>
       </c>
       <c r="T5" t="n">
-        <v>1746.775898523739</v>
+        <v>1908.648782757971</v>
       </c>
       <c r="U5" t="n">
-        <v>1491.023168958338</v>
+        <v>1908.648782757971</v>
       </c>
       <c r="V5" t="n">
-        <v>1491.023168958338</v>
+        <v>1908.648782757971</v>
       </c>
       <c r="W5" t="n">
-        <v>1491.023168958338</v>
+        <v>1908.648782757971</v>
       </c>
       <c r="X5" t="n">
-        <v>1491.023168958338</v>
+        <v>1908.648782757971</v>
       </c>
       <c r="Y5" t="n">
-        <v>1491.023168958338</v>
+        <v>1908.648782757971</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963693</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564616</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284341</v>
+        <v>90.89050074442682</v>
       </c>
       <c r="I6" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="L6" t="n">
-        <v>476.3497876767088</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653879</v>
+        <v>555.1059253660261</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875481</v>
+        <v>1068.708603975714</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466462</v>
+        <v>1582.311282585401</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.41787818286</v>
+        <v>1987.932651301799</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.78296973775</v>
+        <v>1940.231660716789</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1763.247848915697</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1553.184705594339</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1330.644703965406</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1330.644703965406</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373307</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.7497132953094</v>
+        <v>508.1737230331271</v>
       </c>
       <c r="C7" t="n">
-        <v>211.7497132953094</v>
+        <v>508.1737230331271</v>
       </c>
       <c r="D7" t="n">
-        <v>211.7497132953094</v>
+        <v>352.5406099356419</v>
       </c>
       <c r="E7" t="n">
-        <v>211.7497132953094</v>
+        <v>196.9817977948444</v>
       </c>
       <c r="F7" t="n">
-        <v>211.7497132953094</v>
+        <v>196.9817977948444</v>
       </c>
       <c r="G7" t="n">
-        <v>43.495659394755</v>
+        <v>196.9817977948444</v>
       </c>
       <c r="H7" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I7" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J7" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="T7" t="n">
-        <v>720.3005662367652</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="U7" t="n">
-        <v>434.8617744786661</v>
+        <v>657.5114775397917</v>
       </c>
       <c r="V7" t="n">
-        <v>434.8617744786661</v>
+        <v>657.5114775397917</v>
       </c>
       <c r="W7" t="n">
-        <v>434.8617744786661</v>
+        <v>657.5114775397917</v>
       </c>
       <c r="X7" t="n">
-        <v>434.8617744786661</v>
+        <v>657.5114775397917</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.7497132953094</v>
+        <v>657.5114775397917</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1201.453214517072</v>
+        <v>1327.468549724324</v>
       </c>
       <c r="C8" t="n">
-        <v>1201.453214517072</v>
+        <v>934.2930482272545</v>
       </c>
       <c r="D8" t="n">
-        <v>1201.453214517072</v>
+        <v>934.2930482272545</v>
       </c>
       <c r="E8" t="n">
-        <v>1201.453214517072</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="F8" t="n">
-        <v>784.5587760470498</v>
+        <v>518.8554889141809</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4808,16 +4808,16 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M8" t="n">
-        <v>1590.266290800943</v>
+        <v>1096.945999082414</v>
       </c>
       <c r="N8" t="n">
-        <v>2118.077574438405</v>
+        <v>1624.757282719876</v>
       </c>
       <c r="O8" t="n">
-        <v>2180.802944936232</v>
+        <v>2064.796883612205</v>
       </c>
       <c r="P8" t="n">
         <v>2180.802944936232</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863169</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>1937.641433863169</v>
+        <v>2124.45400451512</v>
       </c>
       <c r="V8" t="n">
-        <v>1595.534624566688</v>
+        <v>2124.45400451512</v>
       </c>
       <c r="W8" t="n">
-        <v>1224.535589534975</v>
+        <v>2124.45400451512</v>
       </c>
       <c r="X8" t="n">
-        <v>1201.453214517072</v>
+        <v>2124.45400451512</v>
       </c>
       <c r="Y8" t="n">
-        <v>1201.453214517072</v>
+        <v>1727.963295435721</v>
       </c>
     </row>
     <row r="9">
@@ -4890,10 +4890,10 @@
         <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.141762214911</v>
+        <v>1140.16403979929</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O9" t="n">
         <v>1725.662044805892</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>442.3175293909171</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="C10" t="n">
-        <v>442.3175293909171</v>
+        <v>337.7333302514928</v>
       </c>
       <c r="D10" t="n">
-        <v>286.6844162934319</v>
+        <v>337.7333302514928</v>
       </c>
       <c r="E10" t="n">
-        <v>204.6389048885707</v>
+        <v>337.7333302514928</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="W10" t="n">
-        <v>665.4295905742738</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="X10" t="n">
-        <v>665.4295905742738</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="Y10" t="n">
-        <v>442.3175293909171</v>
+        <v>386.3238676264566</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2033.222718167679</v>
+        <v>1738.383963389629</v>
       </c>
       <c r="C11" t="n">
-        <v>1711.843491816804</v>
+        <v>1417.004737038753</v>
       </c>
       <c r="D11" t="n">
-        <v>1398.198638179665</v>
+        <v>1103.359883401614</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442404</v>
+        <v>772.5726336643529</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185755</v>
+        <v>470.0264498312598</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527725</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="H11" t="n">
-        <v>128.659969465457</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5069,22 +5069,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U11" t="n">
-        <v>3105.956385205776</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="V11" t="n">
-        <v>3105.956385205776</v>
+        <v>2683.941523761099</v>
       </c>
       <c r="W11" t="n">
-        <v>3004.271952586837</v>
+        <v>2384.738763875581</v>
       </c>
       <c r="X11" t="n">
-        <v>2686.615622666087</v>
+        <v>2067.082433954832</v>
       </c>
       <c r="Y11" t="n">
-        <v>2361.921188732882</v>
+        <v>2067.082433954832</v>
       </c>
     </row>
     <row r="12">
@@ -5118,19 +5118,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N12" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
         <v>1740.468202408463</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>234.333860687098</v>
+        <v>474.8005932364097</v>
       </c>
       <c r="C13" t="n">
-        <v>147.6487873449487</v>
+        <v>376.3917504485927</v>
       </c>
       <c r="D13" t="n">
-        <v>147.6487873449487</v>
+        <v>376.3917504485927</v>
       </c>
       <c r="E13" t="n">
-        <v>147.6487873449487</v>
+        <v>292.6292134539891</v>
       </c>
       <c r="F13" t="n">
-        <v>62.11912770411553</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="G13" t="n">
-        <v>62.11912770411553</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581889</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027732</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118223</v>
+        <v>746.0697615118219</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138162</v>
+        <v>999.6269248138158</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593279</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1444.627927593279</v>
+        <v>1420.36713056032</v>
       </c>
       <c r="T13" t="n">
-        <v>1280.705150907707</v>
+        <v>1256.444353874748</v>
       </c>
       <c r="U13" t="n">
-        <v>1067.062634295801</v>
+        <v>1042.801837262843</v>
       </c>
       <c r="V13" t="n">
-        <v>872.8795642628196</v>
+        <v>848.6187672298613</v>
       </c>
       <c r="W13" t="n">
-        <v>661.3454373401912</v>
+        <v>637.0846403072328</v>
       </c>
       <c r="X13" t="n">
-        <v>499.0613902693682</v>
+        <v>474.8005932364097</v>
       </c>
       <c r="Y13" t="n">
-        <v>347.7456042322053</v>
+        <v>474.8005932364097</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1799.246369073022</v>
+        <v>1381.437402331605</v>
       </c>
       <c r="C14" t="n">
-        <v>1477.867142722146</v>
+        <v>1060.058175980729</v>
       </c>
       <c r="D14" t="n">
-        <v>1164.222289085008</v>
+        <v>1053.100474855837</v>
       </c>
       <c r="E14" t="n">
-        <v>833.4350393477464</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="F14" t="n">
-        <v>488.3368760239182</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="G14" t="n">
-        <v>146.9703956581149</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H14" t="n">
         <v>128.6599694654568</v>
@@ -5276,19 +5276,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M14" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N14" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O14" t="n">
         <v>2572.923332933306</v>
@@ -5306,22 +5306,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2954.252057911387</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>2770.295603492179</v>
+        <v>2921.999930786569</v>
       </c>
       <c r="V14" t="n">
-        <v>2770.295603492179</v>
+        <v>2651.689396636281</v>
       </c>
       <c r="W14" t="n">
-        <v>2770.295603492179</v>
+        <v>2352.486636750762</v>
       </c>
       <c r="X14" t="n">
-        <v>2452.63927357143</v>
+        <v>2034.830306830013</v>
       </c>
       <c r="Y14" t="n">
-        <v>2127.944839638225</v>
+        <v>1710.135872896808</v>
       </c>
     </row>
     <row r="15">
@@ -5361,19 +5361,19 @@
         <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>862.5399502876207</v>
       </c>
       <c r="M15" t="n">
-        <v>1458.313011372373</v>
+        <v>1490.311599914302</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>644.5444216268812</v>
+        <v>424.5048630898966</v>
       </c>
       <c r="C16" t="n">
-        <v>556.6863671542445</v>
+        <v>326.0960203020798</v>
       </c>
       <c r="D16" t="n">
-        <v>472.8495292029532</v>
+        <v>242.2591823507883</v>
       </c>
       <c r="E16" t="n">
-        <v>389.0869922083496</v>
+        <v>242.2591823507883</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675165</v>
+        <v>242.2591823507883</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131559</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208437</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5437,16 +5437,16 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581893</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027735</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118223</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138162</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S16" t="n">
-        <v>1496.732641814508</v>
+        <v>1365.71283314325</v>
       </c>
       <c r="T16" t="n">
-        <v>1496.732641814508</v>
+        <v>1257.2336366986</v>
       </c>
       <c r="U16" t="n">
-        <v>1283.090125202603</v>
+        <v>1257.2336366986</v>
       </c>
       <c r="V16" t="n">
-        <v>1283.090125202603</v>
+        <v>1063.050566665618</v>
       </c>
       <c r="W16" t="n">
-        <v>1071.555998279974</v>
+        <v>851.5164397429899</v>
       </c>
       <c r="X16" t="n">
-        <v>909.2719512091513</v>
+        <v>689.2323926721667</v>
       </c>
       <c r="Y16" t="n">
-        <v>757.9561651719886</v>
+        <v>537.916606635004</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
         <v>1352.560722599515</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975443</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099305</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803421</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5531,7 +5531,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P17" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
         <v>3105.956385205776</v>
@@ -5543,10 +5543,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573994</v>
@@ -5555,10 +5555,10 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443164</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5589,22 +5589,22 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>346.0196676966397</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>346.0196676966397</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>973.7913173233209</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N18" t="n">
-        <v>1629.56928853388</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O18" t="n">
         <v>2146.089571124861</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885596</v>
+        <v>2243.686201918055</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369573</v>
+        <v>2205.157820666453</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218804</v>
+        <v>2181.201444251376</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634914</v>
+        <v>2157.319368792987</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588728</v>
+        <v>2131.670170688369</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072677</v>
+        <v>2095.092853470223</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462919</v>
+        <v>2071.291039114125</v>
       </c>
       <c r="I19" t="n">
-        <v>62.11912770411552</v>
+        <v>2069.873350433611</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411552</v>
+        <v>2069.873350433611</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>2280.764761165982</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>2444.892401039781</v>
       </c>
       <c r="M19" t="n">
-        <v>623.4297566485498</v>
+        <v>2631.183979378045</v>
       </c>
       <c r="N19" t="n">
-        <v>806.6193906797589</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O19" t="n">
-        <v>969.3241577214669</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P19" t="n">
-        <v>1089.200323498045</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q19" t="n">
-        <v>1092.622519868096</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476281</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>3034.817038070734</v>
       </c>
       <c r="T19" t="n">
-        <v>923.020500191881</v>
+        <v>2930.774722921377</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161904</v>
+        <v>2777.012667845686</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194231</v>
+        <v>2642.710059348919</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330091</v>
+        <v>2491.056393962505</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984007</v>
+        <v>2388.652808427897</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974524</v>
+        <v>2297.217483926948</v>
       </c>
     </row>
     <row r="20">
@@ -5735,16 +5735,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924227</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5771,22 +5771,22 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
         <v>2405.467337224691</v>
@@ -5829,16 +5829,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.69877031229973</v>
+        <v>67.69877031229942</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222416</v>
+        <v>149.5338114222413</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960414</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M22" t="n">
-        <v>499.9530296343054</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N22" t="n">
-        <v>683.1426636655146</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296512</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5972,16 +5972,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924227</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -5990,16 +5990,16 @@
         <v>206.7689006129436</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6008,7 +6008,7 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R23" t="n">
         <v>3105.956385205777</v>
@@ -6032,7 +6032,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6075,7 +6075,7 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M24" t="n">
-        <v>865.4243596646552</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6145,28 +6145,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>243.2367958390484</v>
+        <v>149.5338114222416</v>
       </c>
       <c r="L25" t="n">
-        <v>407.3644357128482</v>
+        <v>313.6614512960414</v>
       </c>
       <c r="M25" t="n">
-        <v>593.6560140511123</v>
+        <v>499.9530296343054</v>
       </c>
       <c r="N25" t="n">
-        <v>776.8456480823215</v>
+        <v>683.1426636655146</v>
       </c>
       <c r="O25" t="n">
-        <v>939.5504151240295</v>
+        <v>845.8474307072227</v>
       </c>
       <c r="P25" t="n">
-        <v>1059.426580900608</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R25" t="n">
         <v>1098.202162476281</v>
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
         <v>1584.222786214272</v>
@@ -6230,16 +6230,16 @@
         <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1832.390418388518</v>
       </c>
       <c r="N26" t="n">
-        <v>2423.283548473132</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647882</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P26" t="n">
         <v>3334.531518508978</v>
@@ -6388,7 +6388,7 @@
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225743</v>
       </c>
       <c r="M28" t="n">
         <v>848.0508225904116</v>
@@ -6446,13 +6446,13 @@
         <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218606</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142183</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,28 +6461,28 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
         <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1193.338156614364</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1832.390418388518</v>
+        <v>1888.204925386532</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.20170202598</v>
+        <v>2509.067570753567</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647882</v>
+        <v>2949.107171645896</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3390.346025506991</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
@@ -6598,37 +6598,37 @@
         <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414158</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746018</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6661,10 +6661,10 @@
         <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.798875918588</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.382657846367</v>
+        <v>904.3560533993075</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057092</v>
+        <v>601.3807258108105</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189323</v>
+        <v>91.97314162835494</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076166</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>651.4842651334759</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1144.804556852005</v>
       </c>
       <c r="M32" t="n">
-        <v>1612.500868940161</v>
+        <v>1690.805456896585</v>
       </c>
       <c r="N32" t="n">
-        <v>2245.585245304693</v>
+        <v>2218.616740534047</v>
       </c>
       <c r="O32" t="n">
-        <v>2685.624846197022</v>
+        <v>2770.308462001359</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174554</v>
+        <v>3118.495954132881</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042573</v>
+        <v>3303.341514273829</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038083</v>
+        <v>3377.756780117253</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908498</v>
+        <v>3325.162335939829</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397279</v>
+        <v>3215.580844380771</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696895</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394125</v>
+        <v>2845.559527281939</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291777</v>
+        <v>2588.479603131751</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946333</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.37451074846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898325</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076166</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076166</v>
+        <v>180.6701178220724</v>
       </c>
       <c r="K33" t="n">
-        <v>389.2866943029881</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>872.8527802013014</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.376340354128</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1639.753320993171</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.52557902309</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965135</v>
+        <v>365.6713676929712</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918672</v>
+        <v>309.3853606404857</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237464</v>
+        <v>267.6713584245257</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123134</v>
+        <v>226.0316571652535</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546508</v>
+        <v>182.6248332597518</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834608</v>
+        <v>128.2898902407226</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431928</v>
+        <v>86.73045008374187</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076166</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076166</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="K34" t="n">
-        <v>151.3825893507035</v>
+        <v>149.3901767122869</v>
       </c>
       <c r="L34" t="n">
-        <v>315.5102292245033</v>
+        <v>313.5178165860867</v>
       </c>
       <c r="M34" t="n">
-        <v>595.8284816188175</v>
+        <v>611.4615154993337</v>
       </c>
       <c r="N34" t="n">
-        <v>884.2912083770968</v>
+        <v>870.6770655353519</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145875</v>
+        <v>1033.38183257706</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649524</v>
+        <v>1264.910118928621</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746645</v>
+        <v>1379.984435873655</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308586</v>
+        <v>1370.002557387757</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.2176684205</v>
+        <v>1281.105584451832</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518099</v>
+        <v>1159.305643501591</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689364</v>
+        <v>987.7859626250178</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395528</v>
+        <v>835.7257283273673</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000948</v>
+        <v>666.3144371400701</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124425</v>
+        <v>546.1532258045785</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584503</v>
+        <v>436.9602755027472</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
         <v>68.7795079292422</v>
@@ -6974,7 +6974,7 @@
         <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7020,10 +7020,10 @@
         <v>381.858273766342</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M36" t="n">
-        <v>865.4243596646552</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7096,25 +7096,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296503</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7163,7 +7163,7 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
         <v>68.7795079292422</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7251,16 +7251,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>865.4243596646552</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M39" t="n">
-        <v>865.4243596646552</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7330,28 +7330,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>67.6987703122989</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>149.5338114222408</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>442.7178209184691</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567331</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879423</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296503</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7394,16 +7394,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924227</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,7 +7433,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
         <v>3071.119566829236</v>
@@ -7445,7 +7445,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
         <v>2405.467337224691</v>
@@ -7491,22 +7491,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5393418843826</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7573,22 +7573,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750528</v>
       </c>
       <c r="M43" t="n">
-        <v>499.9530296343054</v>
+        <v>621.3883893133168</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879432</v>
+        <v>804.5780233445259</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296512</v>
+        <v>967.282790386234</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.77996610623</v>
+        <v>1087.158956162813</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476281</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R43" t="n">
         <v>1098.202162476281</v>
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,7 +7673,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7728,22 +7728,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H46" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7813,43 +7813,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>499.9530296343052</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>683.1426636655144</v>
+        <v>804.5780233445264</v>
       </c>
       <c r="O46" t="n">
-        <v>845.8474307072225</v>
+        <v>967.2827903862344</v>
       </c>
       <c r="P46" t="n">
-        <v>965.7235964838011</v>
+        <v>1087.158956162813</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476281</v>
+        <v>1090.581152532864</v>
       </c>
       <c r="R46" t="n">
         <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T46" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984007</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7979,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>680.499153805654</v>
+        <v>668.5156360519572</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920142</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>471.4893712449334</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8061,22 +8061,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>611.1777065035419</v>
       </c>
       <c r="N3" t="n">
-        <v>495.3119381825271</v>
+        <v>542.2907959088024</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.478143343119</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>362.7752171258614</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321648</v>
+        <v>668.5156360519572</v>
       </c>
       <c r="N5" t="n">
-        <v>212.7983422525447</v>
+        <v>667.9090757920142</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>96.09182324999786</v>
+        <v>611.1777065035419</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886042</v>
+        <v>604.1626973083967</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.478143343119</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>179.0989476156325</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8456,7 +8456,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,10 +8465,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>212.9227975229111</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>267.4792869621647</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8538,13 +8538,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>340.274574506989</v>
+        <v>270.6001074205032</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
@@ -8766,7 +8766,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8775,13 +8775,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N12" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
-        <v>342.4574509263909</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
@@ -9009,22 +9009,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>575.5973938481089</v>
       </c>
       <c r="M15" t="n">
-        <v>691.2645480167034</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9243,19 +9243,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>376.3651575480042</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>744.8605591506561</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
         <v>87.08336481931465</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9486,10 +9486,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9653,7 +9653,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P23" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q23" t="n">
         <v>331.2113854294513</v>
@@ -9723,10 +9723,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N24" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -10425,7 +10425,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10434,13 +10434,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>454.5321323046928</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>199.9106794075977</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10592,7 +10592,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M35" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488188</v>
       </c>
       <c r="N35" t="n">
         <v>682.2612020826953</v>
@@ -10668,13 +10668,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>280.5807329993939</v>
       </c>
       <c r="N36" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10899,19 +10899,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>163.9964000092958</v>
       </c>
       <c r="M39" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11139,16 +11139,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>237.5738335035115</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11157,7 +11157,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11376,16 +11376,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>340.2745745069883</v>
+        <v>726.0244253199895</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -11394,7 +11394,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>42.12645969582854</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362789</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>195.543143993913</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>11.60653175121092</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177843</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465754</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681694</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338899</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456092</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>105.691421521916</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -23498,19 +23498,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>303.6202809871236</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>231.6365856037108</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362797</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866634</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>10.44528043202838</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901683</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>54.88914443851243</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.241239332652</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1172408.012003453</v>
+        <v>1170904.142969052</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1172408.012003453</v>
+        <v>1170904.142969052</v>
       </c>
     </row>
     <row r="4">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>144265.7424746855</v>
+        <v>144265.7424746854</v>
       </c>
       <c r="C2" t="n">
         <v>144265.7424746855</v>
@@ -26323,28 +26323,28 @@
         <v>127487.2187395205</v>
       </c>
       <c r="F2" t="n">
-        <v>127487.2187395203</v>
+        <v>127487.2187395205</v>
       </c>
       <c r="G2" t="n">
-        <v>144265.7424746854</v>
+        <v>144265.7424746855</v>
       </c>
       <c r="H2" t="n">
         <v>144265.7424746854</v>
       </c>
       <c r="I2" t="n">
-        <v>144265.7424746854</v>
+        <v>144265.7424746855</v>
       </c>
       <c r="J2" t="n">
         <v>144265.7424746851</v>
       </c>
       <c r="K2" t="n">
-        <v>144265.7424746851</v>
+        <v>144265.7424746852</v>
       </c>
       <c r="L2" t="n">
+        <v>144265.7424746854</v>
+      </c>
+      <c r="M2" t="n">
         <v>144265.7424746853</v>
-      </c>
-      <c r="M2" t="n">
-        <v>144265.7424746854</v>
       </c>
       <c r="N2" t="n">
         <v>144265.7424746854</v>
@@ -26353,7 +26353,7 @@
         <v>144265.7424746854</v>
       </c>
       <c r="P2" t="n">
-        <v>144265.7424746855</v>
+        <v>144265.7424746854</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.948291856</v>
+        <v>173858.6570340549</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.1403106218</v>
+        <v>22558.42953401365</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740446</v>
+        <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668191</v>
+        <v>47425.32553668196</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945027</v>
+        <v>200285.8640399292</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728541</v>
+        <v>62456.24177539683</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.829459623</v>
+        <v>43252.52447081126</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277121</v>
+        <v>27767.69404277118</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221554.611048951</v>
+        <v>226762.9162907736</v>
       </c>
       <c r="C4" t="n">
-        <v>221554.611048951</v>
+        <v>226762.9162907737</v>
       </c>
       <c r="D4" t="n">
         <v>211575.8953047903</v>
       </c>
       <c r="E4" t="n">
-        <v>138605.9604845214</v>
+        <v>138605.9604845213</v>
       </c>
       <c r="F4" t="n">
-        <v>138605.9604845214</v>
+        <v>138605.9604845213</v>
       </c>
       <c r="G4" t="n">
         <v>186364.8769761035</v>
       </c>
       <c r="H4" t="n">
-        <v>186364.8769761035</v>
+        <v>186364.8769761036</v>
       </c>
       <c r="I4" t="n">
         <v>186364.8769761036</v>
@@ -26445,7 +26445,7 @@
         <v>187115.3694404867</v>
       </c>
       <c r="L4" t="n">
-        <v>186859.7955400033</v>
+        <v>186726.4009309485</v>
       </c>
       <c r="M4" t="n">
         <v>186364.8769761036</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481718</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481718</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,10 +26482,10 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173851</v>
+        <v>60823.1981331542</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26509,7 +26509,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
     </row>
     <row r="6">
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-326178.1180061354</v>
+        <v>-321525.8983849603</v>
       </c>
       <c r="C6" t="n">
-        <v>-143973.1697142793</v>
+        <v>-147667.2413509054</v>
       </c>
       <c r="D6" t="n">
-        <v>-151717.7504178998</v>
+        <v>-159454.0396412917</v>
       </c>
       <c r="E6" t="n">
-        <v>-176427.322918886</v>
+        <v>-176637.0544655755</v>
       </c>
       <c r="F6" t="n">
-        <v>-64304.76144484158</v>
+        <v>-64514.4929915309</v>
       </c>
       <c r="G6" t="n">
         <v>-147694.2293536197</v>
@@ -26543,19 +26543,19 @@
         <v>-100268.9038169378</v>
       </c>
       <c r="J6" t="n">
-        <v>-313310.8214142238</v>
+        <v>-306794.5362596503</v>
       </c>
       <c r="K6" t="n">
         <v>-106508.672219721</v>
       </c>
       <c r="L6" t="n">
-        <v>-161691.2611543419</v>
+        <v>-165740.0983648141</v>
       </c>
       <c r="M6" t="n">
-        <v>-142469.7332765609</v>
+        <v>-143521.4282877492</v>
       </c>
       <c r="N6" t="n">
-        <v>-100268.9038169379</v>
+        <v>-100268.9038169378</v>
       </c>
       <c r="O6" t="n">
         <v>-128036.597859709</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26713,7 +26713,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26725,7 +26725,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344375</v>
+        <v>518.79058445423</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344375</v>
+        <v>518.79058445423</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26802,13 +26802,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
         <v>917.0607368443782</v>
@@ -26817,7 +26817,7 @@
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095207</v>
+        <v>844.4391950293132</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26826,7 +26826,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085238</v>
+        <v>59.28165692085246</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346407</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660676</v>
+        <v>78.07030221924605</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551357</v>
+        <v>17.58004954287436</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344375</v>
+        <v>518.79058445423</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485754</v>
+        <v>72.62154181506503</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773717</v>
+        <v>659.362224997164</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407243</v>
+        <v>117.1268713042799</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085238</v>
+        <v>59.28165692085246</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346407</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344375</v>
+        <v>518.79058445423</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485754</v>
+        <v>72.62154181506503</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>71.83022383064338</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>81.91958788697224</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -27445,7 +27445,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27461,7 +27461,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>54.01360606785762</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27515,10 +27515,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>185.1777423863144</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -27555,7 +27555,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>125.3963491601821</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27588,22 +27588,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>125.7398519524134</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>174.4379323106335</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>61.44502356163787</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -27743,10 +27743,10 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938626819</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,10 +27755,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>30.33573339694155</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>35.51156154279036</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27825,7 +27825,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>10.96616677090148</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>14.41264671330748</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>362.7065277485494</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>120.3984347534565</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>72.77816772857692</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
@@ -28071,13 +28071,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="17">
@@ -28746,16 +28746,16 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>128.2979821082783</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28840,7 +28840,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -28980,13 +28980,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>35.71049010668857</v>
+        <v>35.71049010668824</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29062,7 +29062,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733418</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
         <v>130.3599693155844</v>
@@ -29217,31 +29217,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K25" t="n">
+        <v>5.63600263452949</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
       <c r="Q25" t="n">
-        <v>28.01250026485285</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29302,19 +29302,19 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>30.27223765901226</v>
+      </c>
+      <c r="N26" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
       <c r="O26" t="n">
-        <v>30.27223765901221</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>93.99127447431646</v>
@@ -29460,7 +29460,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431636</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
         <v>93.99127447431646</v>
@@ -29469,7 +29469,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431636</v>
       </c>
       <c r="P28" t="n">
         <v>93.99127447431646</v>
@@ -29533,22 +29533,22 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="L29" t="n">
-        <v>30.27223765901215</v>
-      </c>
       <c r="M29" t="n">
+        <v>86.65052755599527</v>
+      </c>
+      <c r="N29" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>93.99127447431646</v>
@@ -29557,7 +29557,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,34 +29746,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>81.10808140893016</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29782,40 +29782,40 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="P32" t="n">
-        <v>86.27291196566711</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,28 +29904,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
@@ -29937,43 +29937,43 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>94.97643844045473</v>
+        <v>112.77991977271</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000708</v>
+        <v>76.79385455031206</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30025,7 +30025,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -30168,28 +30168,28 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>5.63600263452858</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30402,31 +30402,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>35.71049010668774</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>128.2979821082774</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30645,25 +30645,25 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="M43" t="n">
-        <v>5.636002634529518</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J46" t="n">
         <v>30.07448747215907</v>
@@ -30885,10 +30885,10 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>5.636002634529291</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>128.2979821082787</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
   </sheetData>
@@ -34699,25 +34699,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>530.7741022079268</v>
+        <v>518.79058445423</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.79058445423</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.1879240040082</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,22 +34781,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>518.79058445423</v>
       </c>
       <c r="N3" t="n">
-        <v>409.9398253283604</v>
+        <v>456.9186830546357</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.79058445423</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>209.5270473953697</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344375</v>
+        <v>518.79058445423</v>
       </c>
       <c r="N5" t="n">
-        <v>63.67985091476064</v>
+        <v>518.79058445423</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>3.704701200685939</v>
+        <v>518.79058445423</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344375</v>
+        <v>518.79058445423</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.79058445423</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>88.11079445971852</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,7 +35176,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,10 +35185,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>63.35896009881473</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>117.1778397212395</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35258,13 +35258,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>247.8874524576771</v>
+        <v>178.2129853711913</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
@@ -35495,13 +35495,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>249.769892037502</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.0038249225729</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
         <v>235.4265619318108</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488445</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>485.5370469911907</v>
       </c>
       <c r="M15" t="n">
-        <v>598.8774259673916</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.0038249225729</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
         <v>235.4265619318108</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488445</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>286.7682222146709</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>659.4884462964894</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36042,16 +36042,16 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>318.5332807683763</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094878</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36063,7 +36063,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>5.636002634529554</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36136,7 +36136,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065884</v>
       </c>
       <c r="Q20" t="n">
         <v>186.7126870110591</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36206,10 +36206,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.636002634529496</v>
+        <v>5.636002634529174</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36291,7 +36291,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36358,7 +36358,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317805</v>
       </c>
       <c r="L23" t="n">
         <v>498.303324968211</v>
@@ -36373,7 +36373,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P23" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q23" t="n">
         <v>186.7126870110591</v>
@@ -36443,10 +36443,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N24" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133946</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36531,13 +36531,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.46926427500534</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>7.69798984183555</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36598,19 +36598,19 @@
         <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>581.7882983101038</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>474.7566830047985</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
         <v>280.7039614853756</v>
@@ -36756,7 +36756,7 @@
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963363</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
@@ -36765,7 +36765,7 @@
         <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
-        <v>258.3395240113953</v>
+        <v>258.3395240113952</v>
       </c>
       <c r="P28" t="n">
         <v>215.0783106122746</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>528.5755626272231</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>638.1665882070868</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
@@ -36853,7 +36853,7 @@
         <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>443.7165218407098</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
@@ -37078,19 +37078,19 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>639.479168044982</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>557.2643651184964</v>
       </c>
       <c r="P32" t="n">
-        <v>437.9774494722548</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.04914431113</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273755</v>
+        <v>75.16693519537677</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37154,13 +37154,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37233,19 +37233,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>283.1497498932467</v>
+        <v>300.953231225502</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750296</v>
+        <v>261.8338889252709</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371497</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.423493438029</v>
+        <v>233.8669559106682</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102233</v>
+        <v>116.2366837828625</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N35" t="n">
         <v>533.1427107449111</v>
@@ -37321,7 +37321,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
         <v>186.7126870110591</v>
@@ -37388,13 +37388,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>188.193610950082</v>
       </c>
       <c r="N36" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37476,16 +37476,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>169.9842521716074</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.636002634528635</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.636002634528664</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37716,13 +37716,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>121.0870361379582</v>
+        <v>249.3850182462355</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37859,16 +37859,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>145.1867114541996</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37877,7 +37877,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,13 +37941,13 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>165.78549482202</v>
+        <v>294.0834769302983</v>
       </c>
       <c r="M43" t="n">
-        <v>193.8093140873215</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>7.69798984183555</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38096,16 +38096,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>247.8874524576764</v>
+        <v>633.6373032706776</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38114,7 +38114,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38181,10 +38181,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>193.8093140873212</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>185.0400343749588</v>
+        <v>313.3380164832375</v>
       </c>
       <c r="O46" t="n">
         <v>164.3482495370789</v>
@@ -38193,10 +38193,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.8167333257368</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.697989841835522</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
